--- a/data_db.xlsx
+++ b/data_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkadiusz\Projects\travel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198702B-54DE-4C6C-A476-5BA7A4A93BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D47500-A225-43AD-95D1-9FAE8E4D57A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1260" windowWidth="21600" windowHeight="12675" tabRatio="696" activeTab="9" xr2:uid="{DB2BE689-783A-444A-8B03-32BE166DC607}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" activeTab="11" xr2:uid="{DB2BE689-783A-444A-8B03-32BE166DC607}"/>
   </bookViews>
   <sheets>
     <sheet name="MealPlan" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Counterparty" sheetId="8" r:id="rId8"/>
     <sheet name="Hotel" sheetId="9" r:id="rId9"/>
     <sheet name="Room" sheetId="10" r:id="rId10"/>
+    <sheet name="Villa" sheetId="12" r:id="rId11"/>
+    <sheet name="Airline" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -103,9 +105,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>leader</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -380,6 +379,72 @@
   </si>
   <si>
     <t>Executive Room</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Qatar Airways</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>Wizzair</t>
+  </si>
+  <si>
+    <t>Ryanair</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>rooms_no</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Willa Prowansja</t>
+  </si>
+  <si>
+    <t>www.willaprowansa.com</t>
+  </si>
+  <si>
+    <t>Willa Rio Negro</t>
+  </si>
+  <si>
+    <t>www.willarionegro.com</t>
+  </si>
+  <si>
+    <t>Room Only</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>www.qatarairways.com/</t>
+  </si>
+  <si>
+    <t>www.wizzair.com/pl-pl#/</t>
+  </si>
+  <si>
+    <t>www.emirates.com/pl/polish/</t>
+  </si>
+  <si>
+    <t>www.ryanair.com/pl/pl</t>
   </si>
 </sst>
 </file>
@@ -745,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C6295-BA16-4230-AB88-2D675BC421F7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +878,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -822,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FEF7C7-34CB-49D4-90A6-0C530F96F532}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -874,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -892,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -910,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -928,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -943,10 +1019,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -960,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -977,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -994,10 +1070,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>55</v>
@@ -1011,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -1024,6 +1100,171 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5821F42-AFF5-49BB-BBEE-F4F62B107640}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FB7EC051-D2A1-4FD8-9327-E97F4FEBE183}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{BE47968C-2573-49C8-BEE6-ADACB7368FCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A12F98-52EE-4958-A702-D1303631CF40}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A4489CC7-7433-4B45-8BDB-7079D2DE105C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DFA0A1BD-221D-44CE-AC40-F8E702404AD5}"/>
+    <hyperlink ref="C4" r:id="rId3" location="/" xr:uid="{9F96EC35-F0C1-4C6C-9AD9-565A24873624}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0739F0C0-18C7-49E4-8D90-6887DD639C91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1054,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1332,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
       <c r="D2">
         <v>4.5999999999999996</v>
@@ -1132,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>3.9</v>
@@ -1146,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -1162,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED819767-E8E0-4C9E-93B7-381792D6E7E5}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,11 +1418,10 @@
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,19 +1452,16 @@
       <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="1">
         <v>20229</v>
@@ -1233,33 +1470,30 @@
         <v>555888999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>34700</v>
@@ -1268,33 +1502,30 @@
         <v>555777888</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>38502</v>
@@ -1303,22 +1534,19 @@
         <v>666888999</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1703,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1741,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1821,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +1843,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +1876,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1887,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,10 +1898,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1914,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,16 +1937,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -1732,25 +1960,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
       <c r="D2">
         <v>5558884585</v>
       </c>
       <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C448D4F0-0ECD-44F8-87A8-318335B69A8C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +2004,7 @@
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1784,80 +2012,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>101</v>
+      <c r="E6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data_db.xlsx
+++ b/data_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arkadiusz\Projects\travel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkad\Projects\travel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D47500-A225-43AD-95D1-9FAE8E4D57A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F461F-D4CD-4C32-A332-86A37FC0DC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" activeTab="11" xr2:uid="{DB2BE689-783A-444A-8B03-32BE166DC607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" activeTab="3" xr2:uid="{DB2BE689-783A-444A-8B03-32BE166DC607}"/>
   </bookViews>
   <sheets>
     <sheet name="MealPlan" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -445,13 +445,700 @@
   </si>
   <si>
     <t>www.ryanair.com/pl/pl</t>
+  </si>
+  <si>
+    <t>Jan1</t>
+  </si>
+  <si>
+    <t>Kowalski1</t>
+  </si>
+  <si>
+    <t>Jan2</t>
+  </si>
+  <si>
+    <t>Kowalski2</t>
+  </si>
+  <si>
+    <t>Jan3</t>
+  </si>
+  <si>
+    <t>Kowalski3</t>
+  </si>
+  <si>
+    <t>Jan4</t>
+  </si>
+  <si>
+    <t>Kowalski4</t>
+  </si>
+  <si>
+    <t>Jan5</t>
+  </si>
+  <si>
+    <t>Kowalski5</t>
+  </si>
+  <si>
+    <t>Jan6</t>
+  </si>
+  <si>
+    <t>Kowalski6</t>
+  </si>
+  <si>
+    <t>Jan7</t>
+  </si>
+  <si>
+    <t>Kowalski7</t>
+  </si>
+  <si>
+    <t>Jan8</t>
+  </si>
+  <si>
+    <t>Kowalski8</t>
+  </si>
+  <si>
+    <t>Jan9</t>
+  </si>
+  <si>
+    <t>Kowalski9</t>
+  </si>
+  <si>
+    <t>Jan10</t>
+  </si>
+  <si>
+    <t>Kowalski10</t>
+  </si>
+  <si>
+    <t>Jan11</t>
+  </si>
+  <si>
+    <t>Kowalski11</t>
+  </si>
+  <si>
+    <t>Jan12</t>
+  </si>
+  <si>
+    <t>Kowalski12</t>
+  </si>
+  <si>
+    <t>Jan13</t>
+  </si>
+  <si>
+    <t>Kowalski13</t>
+  </si>
+  <si>
+    <t>Jan14</t>
+  </si>
+  <si>
+    <t>Kowalski14</t>
+  </si>
+  <si>
+    <t>Jan15</t>
+  </si>
+  <si>
+    <t>Kowalski15</t>
+  </si>
+  <si>
+    <t>Jan16</t>
+  </si>
+  <si>
+    <t>Kowalski16</t>
+  </si>
+  <si>
+    <t>Jan17</t>
+  </si>
+  <si>
+    <t>Kowalski17</t>
+  </si>
+  <si>
+    <t>Jan18</t>
+  </si>
+  <si>
+    <t>Kowalski18</t>
+  </si>
+  <si>
+    <t>Jan19</t>
+  </si>
+  <si>
+    <t>Kowalski19</t>
+  </si>
+  <si>
+    <t>Jan20</t>
+  </si>
+  <si>
+    <t>Kowalski20</t>
+  </si>
+  <si>
+    <t>Jan21</t>
+  </si>
+  <si>
+    <t>Kowalski21</t>
+  </si>
+  <si>
+    <t>Jan22</t>
+  </si>
+  <si>
+    <t>Kowalski22</t>
+  </si>
+  <si>
+    <t>Jan23</t>
+  </si>
+  <si>
+    <t>Kowalski23</t>
+  </si>
+  <si>
+    <t>Jan24</t>
+  </si>
+  <si>
+    <t>Kowalski24</t>
+  </si>
+  <si>
+    <t>Jan25</t>
+  </si>
+  <si>
+    <t>Kowalski25</t>
+  </si>
+  <si>
+    <t>Jan26</t>
+  </si>
+  <si>
+    <t>Kowalski26</t>
+  </si>
+  <si>
+    <t>Jan27</t>
+  </si>
+  <si>
+    <t>Kowalski27</t>
+  </si>
+  <si>
+    <t>Jan28</t>
+  </si>
+  <si>
+    <t>Kowalski28</t>
+  </si>
+  <si>
+    <t>Jan29</t>
+  </si>
+  <si>
+    <t>Kowalski29</t>
+  </si>
+  <si>
+    <t>Jan30</t>
+  </si>
+  <si>
+    <t>Kowalski30</t>
+  </si>
+  <si>
+    <t>Jan31</t>
+  </si>
+  <si>
+    <t>Kowalski31</t>
+  </si>
+  <si>
+    <t>Jan32</t>
+  </si>
+  <si>
+    <t>Kowalski32</t>
+  </si>
+  <si>
+    <t>Jan33</t>
+  </si>
+  <si>
+    <t>Kowalski33</t>
+  </si>
+  <si>
+    <t>Jan34</t>
+  </si>
+  <si>
+    <t>Kowalski34</t>
+  </si>
+  <si>
+    <t>Jan35</t>
+  </si>
+  <si>
+    <t>Kowalski35</t>
+  </si>
+  <si>
+    <t>Jan36</t>
+  </si>
+  <si>
+    <t>Kowalski36</t>
+  </si>
+  <si>
+    <t>Jan37</t>
+  </si>
+  <si>
+    <t>Kowalski37</t>
+  </si>
+  <si>
+    <t>Jan38</t>
+  </si>
+  <si>
+    <t>Kowalski38</t>
+  </si>
+  <si>
+    <t>Jan39</t>
+  </si>
+  <si>
+    <t>Kowalski39</t>
+  </si>
+  <si>
+    <t>Jan40</t>
+  </si>
+  <si>
+    <t>Kowalski40</t>
+  </si>
+  <si>
+    <t>Jan41</t>
+  </si>
+  <si>
+    <t>Kowalski41</t>
+  </si>
+  <si>
+    <t>Jan42</t>
+  </si>
+  <si>
+    <t>Kowalski42</t>
+  </si>
+  <si>
+    <t>Jan43</t>
+  </si>
+  <si>
+    <t>Kowalski43</t>
+  </si>
+  <si>
+    <t>Jan44</t>
+  </si>
+  <si>
+    <t>Kowalski44</t>
+  </si>
+  <si>
+    <t>Jan45</t>
+  </si>
+  <si>
+    <t>Kowalski45</t>
+  </si>
+  <si>
+    <t>Jan46</t>
+  </si>
+  <si>
+    <t>Kowalski46</t>
+  </si>
+  <si>
+    <t>Jan47</t>
+  </si>
+  <si>
+    <t>Kowalski47</t>
+  </si>
+  <si>
+    <t>Jan48</t>
+  </si>
+  <si>
+    <t>Kowalski48</t>
+  </si>
+  <si>
+    <t>Jan49</t>
+  </si>
+  <si>
+    <t>Kowalski49</t>
+  </si>
+  <si>
+    <t>Jan50</t>
+  </si>
+  <si>
+    <t>Kowalski50</t>
+  </si>
+  <si>
+    <t>Jan51</t>
+  </si>
+  <si>
+    <t>Kowalski51</t>
+  </si>
+  <si>
+    <t>Jan52</t>
+  </si>
+  <si>
+    <t>Kowalski52</t>
+  </si>
+  <si>
+    <t>Jan53</t>
+  </si>
+  <si>
+    <t>Kowalski53</t>
+  </si>
+  <si>
+    <t>Jan54</t>
+  </si>
+  <si>
+    <t>Kowalski54</t>
+  </si>
+  <si>
+    <t>Jan55</t>
+  </si>
+  <si>
+    <t>Kowalski55</t>
+  </si>
+  <si>
+    <t>Jan56</t>
+  </si>
+  <si>
+    <t>Kowalski56</t>
+  </si>
+  <si>
+    <t>Jan57</t>
+  </si>
+  <si>
+    <t>Kowalski57</t>
+  </si>
+  <si>
+    <t>01-001</t>
+  </si>
+  <si>
+    <t>Warszawska</t>
+  </si>
+  <si>
+    <t>01-002</t>
+  </si>
+  <si>
+    <t>01-003</t>
+  </si>
+  <si>
+    <t>01-004</t>
+  </si>
+  <si>
+    <t>01-005</t>
+  </si>
+  <si>
+    <t>01-006</t>
+  </si>
+  <si>
+    <t>01-007</t>
+  </si>
+  <si>
+    <t>01-008</t>
+  </si>
+  <si>
+    <t>01-009</t>
+  </si>
+  <si>
+    <t>01-010</t>
+  </si>
+  <si>
+    <t>01-011</t>
+  </si>
+  <si>
+    <t>01-012</t>
+  </si>
+  <si>
+    <t>01-013</t>
+  </si>
+  <si>
+    <t>01-014</t>
+  </si>
+  <si>
+    <t>01-015</t>
+  </si>
+  <si>
+    <t>01-016</t>
+  </si>
+  <si>
+    <t>01-017</t>
+  </si>
+  <si>
+    <t>01-018</t>
+  </si>
+  <si>
+    <t>01-019</t>
+  </si>
+  <si>
+    <t>01-020</t>
+  </si>
+  <si>
+    <t>01-021</t>
+  </si>
+  <si>
+    <t>01-022</t>
+  </si>
+  <si>
+    <t>01-023</t>
+  </si>
+  <si>
+    <t>01-024</t>
+  </si>
+  <si>
+    <t>01-025</t>
+  </si>
+  <si>
+    <t>01-026</t>
+  </si>
+  <si>
+    <t>01-027</t>
+  </si>
+  <si>
+    <t>01-028</t>
+  </si>
+  <si>
+    <t>01-029</t>
+  </si>
+  <si>
+    <t>01-030</t>
+  </si>
+  <si>
+    <t>01-031</t>
+  </si>
+  <si>
+    <t>01-032</t>
+  </si>
+  <si>
+    <t>01-033</t>
+  </si>
+  <si>
+    <t>01-034</t>
+  </si>
+  <si>
+    <t>01-035</t>
+  </si>
+  <si>
+    <t>01-036</t>
+  </si>
+  <si>
+    <t>01-037</t>
+  </si>
+  <si>
+    <t>01-038</t>
+  </si>
+  <si>
+    <t>01-039</t>
+  </si>
+  <si>
+    <t>01-040</t>
+  </si>
+  <si>
+    <t>01-041</t>
+  </si>
+  <si>
+    <t>01-042</t>
+  </si>
+  <si>
+    <t>01-043</t>
+  </si>
+  <si>
+    <t>01-044</t>
+  </si>
+  <si>
+    <t>01-045</t>
+  </si>
+  <si>
+    <t>01-046</t>
+  </si>
+  <si>
+    <t>01-047</t>
+  </si>
+  <si>
+    <t>01-048</t>
+  </si>
+  <si>
+    <t>01-049</t>
+  </si>
+  <si>
+    <t>01-050</t>
+  </si>
+  <si>
+    <t>01-051</t>
+  </si>
+  <si>
+    <t>01-052</t>
+  </si>
+  <si>
+    <t>01-053</t>
+  </si>
+  <si>
+    <t>01-054</t>
+  </si>
+  <si>
+    <t>01-055</t>
+  </si>
+  <si>
+    <t>01-056</t>
+  </si>
+  <si>
+    <t>01-057</t>
+  </si>
+  <si>
+    <t>Jan1wp.pl</t>
+  </si>
+  <si>
+    <t>Jan2wp.pl</t>
+  </si>
+  <si>
+    <t>Jan3wp.pl</t>
+  </si>
+  <si>
+    <t>Jan4wp.pl</t>
+  </si>
+  <si>
+    <t>Jan5wp.pl</t>
+  </si>
+  <si>
+    <t>Jan6wp.pl</t>
+  </si>
+  <si>
+    <t>Jan7wp.pl</t>
+  </si>
+  <si>
+    <t>Jan8wp.pl</t>
+  </si>
+  <si>
+    <t>Jan9wp.pl</t>
+  </si>
+  <si>
+    <t>Jan10wp.pl</t>
+  </si>
+  <si>
+    <t>Jan11wp.pl</t>
+  </si>
+  <si>
+    <t>Jan12wp.pl</t>
+  </si>
+  <si>
+    <t>Jan13wp.pl</t>
+  </si>
+  <si>
+    <t>Jan14wp.pl</t>
+  </si>
+  <si>
+    <t>Jan15wp.pl</t>
+  </si>
+  <si>
+    <t>Jan16wp.pl</t>
+  </si>
+  <si>
+    <t>Jan17wp.pl</t>
+  </si>
+  <si>
+    <t>Jan18wp.pl</t>
+  </si>
+  <si>
+    <t>Jan19wp.pl</t>
+  </si>
+  <si>
+    <t>Jan20wp.pl</t>
+  </si>
+  <si>
+    <t>Jan21wp.pl</t>
+  </si>
+  <si>
+    <t>Jan22wp.pl</t>
+  </si>
+  <si>
+    <t>Jan23wp.pl</t>
+  </si>
+  <si>
+    <t>Jan24wp.pl</t>
+  </si>
+  <si>
+    <t>Jan25wp.pl</t>
+  </si>
+  <si>
+    <t>Jan26wp.pl</t>
+  </si>
+  <si>
+    <t>Jan27wp.pl</t>
+  </si>
+  <si>
+    <t>Jan28wp.pl</t>
+  </si>
+  <si>
+    <t>Jan29wp.pl</t>
+  </si>
+  <si>
+    <t>Jan30wp.pl</t>
+  </si>
+  <si>
+    <t>Jan31wp.pl</t>
+  </si>
+  <si>
+    <t>Jan32wp.pl</t>
+  </si>
+  <si>
+    <t>Jan33wp.pl</t>
+  </si>
+  <si>
+    <t>Jan34wp.pl</t>
+  </si>
+  <si>
+    <t>Jan35wp.pl</t>
+  </si>
+  <si>
+    <t>Jan36wp.pl</t>
+  </si>
+  <si>
+    <t>Jan37wp.pl</t>
+  </si>
+  <si>
+    <t>Jan38wp.pl</t>
+  </si>
+  <si>
+    <t>Jan39wp.pl</t>
+  </si>
+  <si>
+    <t>Jan40wp.pl</t>
+  </si>
+  <si>
+    <t>Jan41wp.pl</t>
+  </si>
+  <si>
+    <t>Jan42wp.pl</t>
+  </si>
+  <si>
+    <t>Jan43wp.pl</t>
+  </si>
+  <si>
+    <t>Jan44wp.pl</t>
+  </si>
+  <si>
+    <t>Jan45wp.pl</t>
+  </si>
+  <si>
+    <t>Jan46wp.pl</t>
+  </si>
+  <si>
+    <t>Jan47wp.pl</t>
+  </si>
+  <si>
+    <t>Jan48wp.pl</t>
+  </si>
+  <si>
+    <t>Jan49wp.pl</t>
+  </si>
+  <si>
+    <t>Jan50wp.pl</t>
+  </si>
+  <si>
+    <t>Jan51wp.pl</t>
+  </si>
+  <si>
+    <t>Jan52wp.pl</t>
+  </si>
+  <si>
+    <t>Jan53wp.pl</t>
+  </si>
+  <si>
+    <t>Jan54wp.pl</t>
+  </si>
+  <si>
+    <t>Jan55wp.pl</t>
+  </si>
+  <si>
+    <t>Jan56wp.pl</t>
+  </si>
+  <si>
+    <t>Jan57wp.pl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +1151,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -491,14 +1185,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,9 +1209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -554,7 +1249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -660,7 +1355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1193,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A12F98-52EE-4958-A702-D1303631CF40}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1403,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED819767-E8E0-4C9E-93B7-381792D6E7E5}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +2244,1832 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36526</v>
+      </c>
+      <c r="E5">
+        <v>666666666</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36527</v>
+      </c>
+      <c r="E6">
+        <v>666666667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36528</v>
+      </c>
+      <c r="E7">
+        <v>666666668</v>
+      </c>
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36529</v>
+      </c>
+      <c r="E8">
+        <v>666666669</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36530</v>
+      </c>
+      <c r="E9">
+        <v>666666670</v>
+      </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36531</v>
+      </c>
+      <c r="E10">
+        <v>666666671</v>
+      </c>
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36532</v>
+      </c>
+      <c r="E11">
+        <v>666666672</v>
+      </c>
+      <c r="F11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36533</v>
+      </c>
+      <c r="E12">
+        <v>666666673</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36534</v>
+      </c>
+      <c r="E13">
+        <v>666666674</v>
+      </c>
+      <c r="F13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36535</v>
+      </c>
+      <c r="E14">
+        <v>666666675</v>
+      </c>
+      <c r="F14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36536</v>
+      </c>
+      <c r="E15">
+        <v>666666676</v>
+      </c>
+      <c r="F15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36537</v>
+      </c>
+      <c r="E16">
+        <v>666666677</v>
+      </c>
+      <c r="F16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1">
+        <v>36538</v>
+      </c>
+      <c r="E17">
+        <v>666666678</v>
+      </c>
+      <c r="F17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36539</v>
+      </c>
+      <c r="E18">
+        <v>666666679</v>
+      </c>
+      <c r="F18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36540</v>
+      </c>
+      <c r="E19">
+        <v>666666680</v>
+      </c>
+      <c r="F19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36541</v>
+      </c>
+      <c r="E20">
+        <v>666666681</v>
+      </c>
+      <c r="F20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" t="s">
+        <v>248</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36542</v>
+      </c>
+      <c r="E21">
+        <v>666666682</v>
+      </c>
+      <c r="F21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I21" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36543</v>
+      </c>
+      <c r="E22">
+        <v>666666683</v>
+      </c>
+      <c r="F22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1">
+        <v>36544</v>
+      </c>
+      <c r="E23">
+        <v>666666684</v>
+      </c>
+      <c r="F23" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="1">
+        <v>36545</v>
+      </c>
+      <c r="E24">
+        <v>666666685</v>
+      </c>
+      <c r="F24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36546</v>
+      </c>
+      <c r="E25">
+        <v>666666686</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1">
+        <v>36547</v>
+      </c>
+      <c r="E26">
+        <v>666666687</v>
+      </c>
+      <c r="F26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36548</v>
+      </c>
+      <c r="E27">
+        <v>666666688</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36549</v>
+      </c>
+      <c r="E28">
+        <v>666666689</v>
+      </c>
+      <c r="F28" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1">
+        <v>36550</v>
+      </c>
+      <c r="E29">
+        <v>666666690</v>
+      </c>
+      <c r="F29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1">
+        <v>36551</v>
+      </c>
+      <c r="E30">
+        <v>666666691</v>
+      </c>
+      <c r="F30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36552</v>
+      </c>
+      <c r="E31">
+        <v>666666692</v>
+      </c>
+      <c r="F31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36553</v>
+      </c>
+      <c r="E32">
+        <v>666666693</v>
+      </c>
+      <c r="F32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="1">
+        <v>36554</v>
+      </c>
+      <c r="E33">
+        <v>666666694</v>
+      </c>
+      <c r="F33" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="1">
+        <v>36555</v>
+      </c>
+      <c r="E34">
+        <v>666666695</v>
+      </c>
+      <c r="F34" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="1">
+        <v>36556</v>
+      </c>
+      <c r="E35">
+        <v>666666696</v>
+      </c>
+      <c r="F35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>278</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36557</v>
+      </c>
+      <c r="E36">
+        <v>666666697</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>279</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36558</v>
+      </c>
+      <c r="E37">
+        <v>666666698</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I37" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="1">
+        <v>36559</v>
+      </c>
+      <c r="E38">
+        <v>666666699</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="1">
+        <v>36560</v>
+      </c>
+      <c r="E39">
+        <v>666666700</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36561</v>
+      </c>
+      <c r="E40">
+        <v>666666701</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>283</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="1">
+        <v>36562</v>
+      </c>
+      <c r="E41">
+        <v>666666702</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="1">
+        <v>36563</v>
+      </c>
+      <c r="E42">
+        <v>666666703</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="1">
+        <v>36564</v>
+      </c>
+      <c r="E43">
+        <v>666666704</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36565</v>
+      </c>
+      <c r="E44">
+        <v>666666705</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>287</v>
+      </c>
+      <c r="I44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="1">
+        <v>36566</v>
+      </c>
+      <c r="E45">
+        <v>666666706</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>288</v>
+      </c>
+      <c r="I45" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="1">
+        <v>36567</v>
+      </c>
+      <c r="E46">
+        <v>666666707</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I46" t="s">
+        <v>248</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="1">
+        <v>36568</v>
+      </c>
+      <c r="E47">
+        <v>666666708</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36569</v>
+      </c>
+      <c r="E48">
+        <v>666666709</v>
+      </c>
+      <c r="F48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>291</v>
+      </c>
+      <c r="I48" t="s">
+        <v>248</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="1">
+        <v>36570</v>
+      </c>
+      <c r="E49">
+        <v>666666710</v>
+      </c>
+      <c r="F49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I49" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36571</v>
+      </c>
+      <c r="E50">
+        <v>666666711</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="1">
+        <v>36572</v>
+      </c>
+      <c r="E51">
+        <v>666666712</v>
+      </c>
+      <c r="F51" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>294</v>
+      </c>
+      <c r="I51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="1">
+        <v>36573</v>
+      </c>
+      <c r="E52">
+        <v>666666713</v>
+      </c>
+      <c r="F52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>295</v>
+      </c>
+      <c r="I52" t="s">
+        <v>248</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="1">
+        <v>36574</v>
+      </c>
+      <c r="E53">
+        <v>666666714</v>
+      </c>
+      <c r="F53" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" t="s">
+        <v>248</v>
+      </c>
+      <c r="J53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="1">
+        <v>36575</v>
+      </c>
+      <c r="E54">
+        <v>666666715</v>
+      </c>
+      <c r="F54" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" t="s">
+        <v>248</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="1">
+        <v>36576</v>
+      </c>
+      <c r="E55">
+        <v>666666716</v>
+      </c>
+      <c r="F55" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" t="s">
+        <v>248</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="1">
+        <v>36577</v>
+      </c>
+      <c r="E56">
+        <v>666666717</v>
+      </c>
+      <c r="F56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>299</v>
+      </c>
+      <c r="I56" t="s">
+        <v>248</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1">
+        <v>36578</v>
+      </c>
+      <c r="E57">
+        <v>666666718</v>
+      </c>
+      <c r="F57" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>300</v>
+      </c>
+      <c r="I57" t="s">
+        <v>248</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="1">
+        <v>36579</v>
+      </c>
+      <c r="E58">
+        <v>666666719</v>
+      </c>
+      <c r="F58" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>301</v>
+      </c>
+      <c r="I58" t="s">
+        <v>248</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="1">
+        <v>36580</v>
+      </c>
+      <c r="E59">
+        <v>666666720</v>
+      </c>
+      <c r="F59" t="s">
+        <v>359</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I59" t="s">
+        <v>248</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="1">
+        <v>36581</v>
+      </c>
+      <c r="E60">
+        <v>666666721</v>
+      </c>
+      <c r="F60" t="s">
+        <v>360</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>303</v>
+      </c>
+      <c r="I60" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="1">
+        <v>36582</v>
+      </c>
+      <c r="E61">
+        <v>666666722</v>
+      </c>
+      <c r="F61" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>304</v>
+      </c>
+      <c r="I61" t="s">
+        <v>248</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{E2AAB006-AAB3-44D8-A710-1E024B3D13D3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{DAB1E049-EE36-4CA0-9CC8-68237F9E4871}"/>
